--- a/Result.xlsx
+++ b/Result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C5BF43-2F29-42ED-AD6A-92CF308A5D7A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6FC2CA-1FFA-49DC-BD5D-5BA1C4EB5E64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>10_000</t>
   </si>
   <si>
-    <t>100_000</t>
-  </si>
-  <si>
     <t>1_000</t>
   </si>
   <si>
@@ -43,64 +40,61 @@
     <t>0.25</t>
   </si>
   <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>24.84</t>
-  </si>
-  <si>
     <t>VectorArray(10)</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
     <t>0.13</t>
   </si>
   <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>13.45</t>
-  </si>
-  <si>
     <t>VectorArray(100)</t>
   </si>
   <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>8.09</t>
-  </si>
-  <si>
-    <t>4.59</t>
-  </si>
-  <si>
-    <t>1.43</t>
-  </si>
-  <si>
-    <t>12.77</t>
-  </si>
-  <si>
-    <t>15.67</t>
-  </si>
-  <si>
     <t>FactorArray(0.3)</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>4.67</t>
-  </si>
-  <si>
-    <t>3.31</t>
+    <t>24.65</t>
+  </si>
+  <si>
+    <t>25.08</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>13.91</t>
+  </si>
+  <si>
+    <t>13.37</t>
+  </si>
+  <si>
+    <t>4.66</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>13.51</t>
+  </si>
+  <si>
+    <t>12.84</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>4.64</t>
   </si>
 </sst>
 </file>
@@ -136,17 +130,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,7 +422,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,160 +431,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="4" t="s">
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -604,8 +592,5 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="G4:I4 J5 K4" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>